--- a/src/assets/setting.xlsx
+++ b/src/assets/setting.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="24345" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
     <sheet name="member" sheetId="2" r:id="rId2"/>
     <sheet name="setting" sheetId="3" r:id="rId3"/>
+    <sheet name="text" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="233">
   <si>
     <t>name</t>
   </si>
@@ -651,13 +652,70 @@
     <t>路人94</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAgAAAAIACAYAAAD0eNT6AAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAAOSgAADkoBFJHOdgAAABl0RVh0U29mdHdhcmUAd3d3Lmlua3NjYXBlLm9yZ5vuPBoAACcTSURBVHja7d0LuBx1ffDxTSBAuFcQwTsUBbUo2npHpRQstnLJ2Z2S5OyGgHrIzp7IxQsKVlJES7W16gsK1VdQyyUnAQQqr4/05aIVhAIBFREEFModBHJCuCbZ9z8nieTFXM7u7M7s7Pn0eT5PbPuYs5mZs7/vzs78p9RsNksAwMRiIwCAAAAABAAAIAAAAAEAAAgAAEAAAAACAAAQAACAAAAABAAAIAAAAAEAAAgAAEAAAAACAAAQAACAAAAAAQAACAAAQAAAAAIAABAAAIAAAAAEAAAgAAAAAQAACAAAQAAAAAIAABAAAIAAAAAEAAAgAAAAAQAAAgAAEAAAgAAAAAQAACAAAAABAAAIAABAAAAAAgAAEAAAgAAAAAQAACAAAAABAAAIAABAAAAAAgAABAAAIAAAAAEAAAgAAEAAAAACAAAQAACAAAAABAAAIAAAAAEAAAgAAEAAAAACAAAQAACAAAAABAAACAAbAQAEAAAgAAAAAQAACAAAQAAAAAIAABAAAIAAAAAEAAAgAAAAAQAACAAAQAAAAAIAABAAAIAAAABsBAAQAACAAAAABAAAIAAAAAEAAAgAAEAAAAACAAAQAACAAAAABAAAIAAAAAEAAAgAAEAAAAACAAAQAAAgAAAAAQAACAAAQAAAAAIAABAAAIAAAAAEAAAgAAAAAQAACAAAQAAAAAIAABAAAIAAAAAEAAAgAABAAAAAAgAAyMPoyFbBS4LJAgAA+m/Q7xgMBWcFVwS3BUuC5irLgnuD64KLgpODd3UqDOwAAMhu6O8SfCq4OlixxrBvxYPBt4IDgo0EAAD07uDfKTgteK7Nob8uN4+FgAAAgJ4a/FsHnwuWdnjwv9CVwdsFAADkP/zftuo7/GaGvjTeawTsIADo/PCfGTyV8fBf7ZJgGwEAANkN/knB53Ma/Gu6JXiNAACAbALg6z0w/Fd7eOyuAwEAAF0d/o0eGv5r3iWwtQAAgO4M/327cItfp/xgbRcG2mkAkG74/2nwaI8O/9W+KAAAoLMBcHGPD//E8mAPAQAAnRn+7y3A8H/+qwABAAAdCYCrCxQAib0FAACkG/4DBRv+iWsEAACkC4DLCxgAzdXPDLADAaD14f+iYFlBA+ALAgAA2guAWkGH/8rFgQQAALQVAAsLHACJXe1EAGht+G8cLCl4ABxlRwJAawHwyoIP/8SpdiQAtBYA7+qDALjAjgSA1gIg6oMA+JkdCQCtBcBRfRAAd9uRANBaAJzcBwHwtB0JAK0FwKf6IAAesiMBoLUAqPVBANxoRwJAawGwTx8EwCV2JAA9K4riLatRo16rxNdVK/HvEoPl+LfVSv2b1Wlz35RTALy2DwLgWw4wAHpSrVL/dBj4i4PmutUvrw4M7ZRxAGweLC94AJzgIAOg94Z/OT5p/YN/DeX41unTh1+acQT8uOAB8C4HGgA9ZTCKPzXu4f+830TR0DYZBsDHCjz8HwwmO9gA6KHv/Ie2CcP8iTYCoFmN6sdkGAC7Fvn7/+Tf4IADoHc+/VcaR7U1/Me+CqjfXiqVJmUYATcXNAAOEAAAbNDsKN6xFjVqtSiePaYSD8yePXuz7gRA/Mu2AyCoRXP2yTAAji3g8L8v2EwAALDuYTww/O5qpX5OGKzPrmXYPhKG9T8NDsx9eSd/Zvh7H0gVAJV6lGEATA3uLVgAHLH69TvIAVjLVfiNj45z6N4/ozy8e68EQLU8XM74boAPF2j4/zrYWAAAsI7hX2+0OHg7FgHh77ovXQDUD844ADYKflWQABhY87U72AFY47R//NYwSFe0MXxv6FAAnJ0iAJ6uTZuzQ+bbbXRk/2BFjw//y174uh3wAKw5gL/X7gBOrhlIffYhmrNP2z+/XP9ubttudOT4Hh7+dwbbCwAA1nm1f7XSeKb9T+D1c9K+huQ2vmpUv7GNn7+iVh7+i1y34ejI2T04/EeDP1vrtnbQA/TqojhHT01uu6tG8dVhwD2YXHkfPBr8pFqOZwwNDU3p5M+bVWkclOr790p8f0deRzT0ylavBUiuW8h9nyW3142OXNtDw3/56nv+BQBAUb6LLzcOXzXs1ztwO3nfe3IBXcoAeKBTr2VmFO8Z/r57xjf8Gx/tmX03OrJDcFUPDP+ngsH1nm3xiwbQa9/D1w9r4UK8pZ2KgF4KgMTQAUObD0b1z65jaeDngvmduO6gCxGwafCdnBf7efsGv27xywbQQ5/8o8a0MNiWtzh4l84qz3lzZxb+SRUAN3Vjm8z9wNxNq9Pmvin8/YPJev/J2ZHMn/7XXgh8MofHBv938LJxXW/hFw6ghz79R/Evcr0Arxzf2vZV+JX6XPvwjyLgvRldF7Ak+OzqZX4FAECBzIrivVJ8+n42uYo/fYDUj2nz5z8xODh3a/txrREwKfi74DddGPzPBaeOXXvQavDZOQDruTXu4KO2HSzXD62V63MSyennGTOOfElXPv2XG6enOgUfNT7Rie/dq1F8beuf/uOPOV42GAJTgqHgimBZysH/P6sG/2vaPuNjpwD8sUPLjTesGshL/3jgNZ6plRtndfq+81o5Pjfdd/CNkzvyOqbN2SH8fXeM/wE8jc84ZlqOge2CQ4Pzg9+PY+A/E9wYnBj8eSdeg50AdM6i0pRgr2Aw+GTwr8FJQRwcFLyqIN/D758sKzue0+7Jo3H7LQASyUV24e/89w3cjfBg2FZHOvY7EgTJkwV3Cd4dRKvi4K+DPcZW8Uu+Rujwz7TRgbRDf3IwLfj34LGguQGLghOCnQs+/P9wO1r4BDy9M7f/pVoHvxkC4h87flfCQP0d4e8+Nbhi1WJE94dtdGUtatSSq/P9DhSXjQCkGf5/Hdw4jqG/Ns8EXw2275lb8Abnbh0G3JK8LsAbLMcfSRMAs8r1fR2XCACgm4N/m+DCNgf/Cy0ODumFf1cbj8Fd07wOBcjSNn/+r5Pb+ByfCACgW8P/tcEtHRr+a0quFch1gLV/D/7KZXmjKNokdQRUGqe0dw9+HDs+EQBAt4b/64NHuzD8V/tObrf7zZ69WcpV8JrVqL5b2teRRES1Ur+8pZ9brn/dp38EANCt4f+i4PYuDv/VjitqAMwoD+/eidcSRUPbjD3xz/BHAAA5D/9JwaUZDP/EiuDAiRwAf7gmoRIPBLes7aLDYEEnnwSIAABYWwDMyGj4r3ZXkOktZvPmzZschupDaZbinTFjqCt3NCQrD1ajxn7hZxwxGMWVTtxxADYCsKHhv0lwZ8YBkPh45hcBVuIvpwiA+Y4XBADQTwEwJ4fh31x1seHmma4DEA3v0fYiPFH9fY4XBADQTwFwRU4BkDg487MA5foX21iCd8SxggAA+mn4bxcsyzEAzsz8TbFUmpQM9BYCYMHee8/b2PGCAAD6KQCqOQ7/xMN5/LuTe/EHo/hTYbiPrmfwj9Yq8T8b/ggAoB8D4IScAyCxVV7//rGr7yvxCYOV+Lxkqd3gnuCnyap7URRv6RhBAAD9GgD/1gMB8Br7AgQAkG0A/EcPBMB77AsQAEC2AXBhDwTAu+wLEABAtgHw9R4IgF3sCxAAQLYBcHwPBMDm9gX9plqJ3xecE1y16uLSxcH5wWHBiwUAkHcADOQ8/O+2H+izwb9bcNEG1pZIbj89SAAAeQbAlsHTOQbAKfYDfTT8dwkeHecCUyuCzwoAIM8I+EGOAbCffUCfDP8tgp+38ZyJ6QIAyCsAZuY0/O8JptgH9EkAfKXNB03dGWwqAIA8AmBysCiHADjM9qePAuCeFI+aPkoAAHlFwL4ZD/+bxsLDtqc/hv+bUwz/xEIBAOQZAWdkNPyTiw7fZpvTRwFwTMoAuFoAAHkGwKbBNRkEQM32ps8C4EMpA+BuAQDkHQEvDX7bxeH/OduZPgyA/VIGwPUCAOiFCHhxcGWHB/+zwYdtX/o0AF6TMgBOFgBAr0TAlOCrwbIODP87g71sV/o8An6UIgD2EQBAr4XA64OL2hz8jwRHB5vYlkyAAHhTsLyN4X9pMFkAAL0aAm8OTgp+uYGhvzS4IDg02Nq2Y4JFQKuLAd3TzQcD2SlAp2Pg5cE7g2nBnGBW8P7gjcFU2wi3BMbLxjH8bw3+vJuvxQ4BgGwjYN/gynWEwJPJQ4C6tfyvAACA/ENgu2BW8IXg8GDPILPnX9gJADAB2QgAIAAAAAEAAAgAAEAAAAACAAAQAACAAAAABAAAIAAAAAEAAAgAAEAAAAACAAAQAABQAFEUbSIAAKDPzYoa7xysxOdVK/FNwWPBilolvi78OW9mFO8pAACgj9Si4Z2rUX1hGPTN9amV45PmzZs3WQAAQNGH/7Q5O1Qrjbs2NPzX8B9RFG8pAACgoIaGhqaEgf7jFob/SuX6FwUAABRUtVI/tuXhv9JT06fHrxAAAFDEAIjia9sMgOZgJf6GAACAgpkx48iXJFf5txsAtUrjGgEAAEX79F8eLrc7/Fe5XwAAQNHu+S/X900ZACuSiwgFANAXoujoqbVy42+q5frB1Ur9PbVD4tdFUbSRbUPf3f4Xju00AVArx3c7AwAU3mCl/oFqFF8Q3tiW/vEtT/GtwYwsF0CB7sduvGU4vpe1HQHlxukCACj28I/i48d5MdQNs6Y1trPN6J/bAOPT2g2AWZXGQQIAKPAbYOPbrb3x1S/v9veekPGdAKNtBMAlpVJpkgAAJtZFUOX6120/+uYMWDn+SDiul4//d6BxVxR96EVZvDY7COjORVCVxjVtnv58Lqs3QMjmGpj4/eH34fcbPPaj+OoZ5eHds3pddg7QcTMHGu9NcwX0YLl+qO1IX/1OlOu7rLom4H/W9qm/Vq43sr4Q1o4BunDas15NFQCV+Pu2I30bA1G8ZxK5tWjOPnme7bIzgC6c8mwclXIRlJ/YjiAAgOLd/nSCMwAgAICJdwbgg6nOAJTjb9mOIACAghk6YGjzMMifbnsZ1CiebTuCAACKeevT99t7DGp8i+cDgAAAinodwMDQTskjTdsIgAHbDwQAUGCzonivMNSfHefwX57cPWC7gQAA+iECyvU3Jrf1bWD4j1aj+t/aXiAAgH56oymVJiWP/K1WGmeGYX/TqrMCi4P5tUpj+uDg3K1tJxAAQJ/LeslTQAAAAAIAAAQAACAAAAABAAAIAABg/KLo6KnVKN51773nbSwAAKCP1aL6+6qVxv+tVuIH11j46rFaOT43/DmY53Mv7CAA6PjgH945fNq/aBxLYP8oij70IgEAAAU3c2b9T8Jg/824H4JVrt8+65DGawUAABT2e/5oo8EovrTlR2FH8ZUCAAAKe+o//lDLw/8PEVA/UAAAQAENVuLz2g6ASrxIAFAMT4zs2VyyIGouHjmyObrg5OboyHebS0Z+GP4cCX9+JfzfPtlcPL8a/vP7ms1LNrXNgH4//R+G+OMpAuDZLB+UZafRgpGNmkvm/2UY+l8NQ/2uMOibLRgNoXBu+O8d0nz4wq1sS6DvLv4rH/GaFMN/zPTpwy8VAPSOZGAvXnBiGOKPtDj01+WZ5uL554Qg2NX2BfrF7IOP2jZtAAwOxG8VAPSA06eEwT83DOyHOjT4X+jZ8Pef0lxy/g629UQ8XXr01Gq5fnC13PiX8MZ3QjVq1AcrjQ/2yipp0I5wLC9N8xXA4ODcrQUA+Xp8wfvDgL6jS4P/hZY0R+cfG37uJNu+/x0WzX3xqlXQnljXPdHhz1l5rpAGKQLgpnYDoBbFl7kIkHyNjhwTLMto+K9pYfOB725hH/SvGeXh3cMb3R3jfEO8Yu4H5rp4lGLdBlhpTG87AMrx0QKAnFyyaXN0wZk5DP413dh87LxX2Rd9eHtUdMTrkzXQW3xT/HfbjiIJ/zOpGsXXtrEQ0PVZB68dxkoPjWwZhu9VOQ//1R4au8XQfumzU6ONC9tcHOUY249CHesDjbeEY/ehFo7zxYceMvdPM48VO4ux795HR77fI8N/pcUjdzefOPsl9k2ffPofqL+j7dOilfgW25CimRUNvTIcvzeM45P/L2rlxttzOVthRxGG7Uk9Nfyf99Nmc2QT+6gvPv2fmebWqNoh8etsR4p4p0utUv90rdK4JhzHK9Y4ppP/fFs1anwiz7te7KSJbsmC6T06/Fc7w37qiyujf5Ty/uiP244U+2uBoZ0Go7hSrdTfc/iBh/fEYmh2zET25Hkvby4ZWdrjAZB8HTDT/ir4m19UvzHV4iiV+GO2IwgAOne73xk9P/xX+q1nCRT+DMAdKc8ADNqOIADohCdG9giDdXlBAqA5tjaB/VbciwDL8RmprgGI5uxjO4IAoDOf/n9QoOGf+H3zsQu2te+KujhKPJAiAO6ZPXv2ZrYjCABSX/V/7lsLNvxXWjL/7+2/ol4NHW8ZBvn9bQbAEbYhCAA68ul/wcmFDIBklUD7r8DXAdTfE4b5c62uAeDhQCAA6Nzp/1sKGgDN5mPnvNo+LPLdAPHwC+6HXt+V/1fVps3xpEgQAHRm+J/72sIO/7FbAud/1H4s+AWBK1cFXN8KacuThYN87w8CgM6e/v9koQNgdOQy+7EfrgmINkoWRalV4n+uVuqXh4F/Vxj8/1mNGvUZM460BDQIALpw+n9BwQNgif0IIABoPQB+WvAAaDYfvnAr+xJAANBaAPy28AEwOrKbfQkgAGgtAJ4ufAAsWbC3fQkgABivxSMv6oNP/x4OBCAAaO3T//nb9UcALPBgGAABQAsmhQH6TPG/AhjxYBigEGZNa2w3GA3vcfiBh28lAMj7GoDfFf8swMLd7UugZ4d+ub5vrdK4plqJn1pjgatna1F8Wfjz41E0tI0AII8AuLrwAfDoyDb2JdBzgz+a87JqFP9gHEtd/7oa1XcTAGQdAOcV/PT/UvsR6DVRdPTUMPyvb+FhV4sHK42/EgBkGADzjyv4GYAf249Ar6mVG2e1+qjrWjm+OwkHAUA2lix8Q7EDYMHH7EeglySf5Fsd/s9rHCcAyPJrgNsLvAbArvYh0Euq5fgr7QdAPLr33vM2FgBkFQD/UtAAuNn+A3ovAOq3pwiA5uDA3JcLALK6DuDdxfz0P/9z9h/QS5L7+9MM/5XXAjTeLgDI8izAZQULgMXN0bO3t++AnjsDUImXpIqAqH6gACA7jy/8izBUVxTo9r/j7TegR68B+FWaAJg50HiVACBbi+efU5AAuLd538Wb9+I2PLTceEOo92NqlcZnBsv16qwo3mvogKHNHV8wgQIgqi9sOwDK8a3uAiCHswDn7VKQZwN8qPd+4ePh8Mt7zzp+qe+rVuqHzZs3b7LjDPrfzCjeM/zeL28zAr4kAMjpWoAFH+7x4b+gmTzEqFcW+6h9fIvwC3v2OH+xb0iWBnWcwQRYC6Acn9HG8P91FMVbCgByXBxo/td69J7/Rb106j/8z6RqVP+vlm7vqcRXDQ0NTXGcQX+rTZuzQ4tLAT+ZPCUw1/c0O45mc2SjMGwv7bEAeLD56Mgre+tK3/phbd3iU2l8zTEG/S9Z1ndcSwKHUKiVh/8i9w81dhorrwc460/C0L2pd275W/Cu3vrFHtom/OI+0OZ3fCtmR/GOjjOYIGcDKvFA+L3/TvDgGu8Dj4fBf2Vy/VAURRv1xFlNO6un7y2dErwleEOwc7BVV3/mQyNbhuF7Qc7D/7bm6MLde+8Xuh6lW+yjfphjGiaW5GvDGeXh3WdPn/Pqnnx9dlJPDv7kitJkbemHXjBIngq+FfxZF3/+pObiBSfmdK//j8bORPTmbT7HpFzta4FjGxAArG/4HzXOgXJqdy8MHKmEofxARsM/uRXxH8euRejdhT6+km6lr/hKxzcgAFjX8P9si4Ply13/SmDxyD+E4fxElwb/ivD3nzu2HkHv75tTU54B+J5jHBAArG3ATG9zsBzT9df3xMiOYVif3uFFgy4Lw/9thbnHN4orKa8B+HyXjpvJwSuS60X8HgECoJgBcH2bwyVZjS6bFecevnCr5pL5f9dcMnJWGOCPtTjwnx271XDxyHCv3d43HjNn1v8kbOdlKb4C2L/DQ39GkNxu9MjqOw1WrkAYXxq81e8UIACKMfzfl/L08r7Zv+7TpzSXLNi7OTr/I+HPE8Kfp4Uhf1Hws7GL+UYXnBn+b18YG/ijCw5qPnbBtn2wn85vc//8tIOvYfvghxv4ecmSpKcHLyr0Nh8d2Th4WbB7sK33ChAA/RgAJ6UMgG/ajtmcBRgsx79tcd88lzwgqEPHyR7B3S387KsK89XA6MjOwZGrIvKGVRegLn/BWaQngzuC/wq+FRwUePASCIBCB8CXUwbAfNsxo3010EjWZXhynPvl2cGoMa1Dx8ik4No2jo2v9PDQf11wYsoFqJIouDA4PNjCMQoCoGgBcFrKAPiO7ZjhokDR8M7VKL5gA88A+GU1auzXwWPk0BTHx1/22OB/RXDGWj7hp3V/cMTYVweOUxAABQmAz6cMgNNsxzwWB2rsV600vp18xx/cG6IgfEJvnJncMZCsANbhY+TeFMfH13tk8CfLTX8peKrL60r8OhhwjIIAKEIAvCFlAHzAduzr42P7lMfH73pg+L9j1Sf0LFeXPM/XAiAAivAmf0Obb+6/Sr4ftg37+th4S8oASLwsx+FfC57O6dkSi8a+cnAcgQDo4Tf5v2vzjb1m+/X9sXFAyuGf3Ba4SQ6Df3Jwcg88XTK5o+CdjiUQAL38Rn9Ci2/sn7DdJsRx8acpA+DunD75n9Ijj5defbeABZJAAPT0m/1HgqXj+EQ3x/aaUMfF7SkC4NIchn+9h4b/aveNLSzkeKKTritt3ryxNC34RnNR6QfBouCB4DfBFcHZ4f93TPPnpV0EAON5s98l+FJw/wveyBevWuFtd9tpwh0T/ytFAByc8fDfJ3iuBwMg8d/BVMcUqd1YelsY7hcETwbNcbmh9PPw3xtu3lzaRAAwnjf+7YI3BTvYHhP+ToC72xj+12Y8/JMV/X7fo8N/tbMdU6QY/K8NFo576K/dncGgACiIWdMa2w1W4rhaaYyEN9WzB8vxGYOVxheSRWFsHzKKgLcHz7T4oKjdMg6AhT0+/Ffb1zFFG8N/IAzupSmH//NuLJ3TvLy0mQDoUTNmHPmSlQ+BaazrjXdZNaovHIyOeL3tRUZ3BNw1juF/R/JVUsbD/+0FGf6J6wO3zzJ+i0rHBys6Nvyfd03z2tKOAqDHTJ8ev6Jajm8d56eth0II7Ga7kUEEbBYcFzy+jsF/RE63/V1RoABIzHA8Mc7h/8kuDP7//9qAm0tbCoAeMTgw9+XJCmotft/6P7OioVfafmQUAskDgl4d7B+8N3hxjov9/G3Bhn9z1ZMFpziWWK8bSgeGIb28qwGw0oXhx00WAL0QAJXGKW1ecX2J7ceEMzryHwUMgMQH7T/W6RelV4TBvCSD4b/apwVAzpLnvodB/kSbAbBsVjTHvcZMpOG/RQYP+OmWb/bE2cZy/eBaOT4pebLnYCX+2MyBxntrtY9n9hyD6dOHXzqr0jgo/PwTB8v174Y/P16L6u87/MDDt8rsjNbA0E5hGxxQKzf+IXkNtUr8yZkD8V8ODs7dOsdP//87w+GfGG3eVNpBAOQoHIAfTbPy2mAUf8p2ZAIFwEBBh//qZYIn57Hdomhom+Tpket5L3k8DMJDu/kakgFfrdS/uZ7XMDpYjj/S1ffbEDohgL4eftaKdbyGJ2rlevYLn11fel0YyMsyDoDEKQIg19P/8T+lCYBapX6x7cgECoDvFDgAmnk8JyD5dJ1cMzS+95TGhclZyc6feRh+dwvXOV0yY8bQ9h0/2xrNeVsY/reP74NV/YfdeA3rufDv33IY/olnm9eVthEAeV1cVU616lryCztiOzKBAuCRggfASZm+vwwM7RTeJx7N8z3lsGjui8fuXGrlNUTxRV34qvW+Fl/DBdnsp9LkMIgfzCkAkrsCpguAvL4CqMT/ljIAzrQdmSDDf5uCD//EOZkGQBikbX61eEjn7iAZW9Cs9dfQwa8kVl1r0MZ2qM/M4NP/u3Mb/iudJQByC4DG9JRPX5tnOzJBAmD3PgiAKzL8evH9Kd5XHp43b17q6xWSCwxTvIbHh4aGUt86OXbqP+ftsIEV/z6TcwDcIwByMnv27M3WscjKeDybXFFrOzJBAmCfPgiA2zJcu+HEdBcYp19xNHz6Py7VB5yBxlvSnwWpH5PqNXR70bUbSqflHADLmyOljQRAfhcCfqPNU2Tftf2YQAEw2AcBsCTDALgk5dnFWR14Deenusg5qg914DWcnWo7lOPuruK4qHRxzgGQPCfgZQIg37UAbmtt+Me/nTnQeJXtxwQKgKP7IACaWT0iuFZu64mOawy++hc7MHxvS3eXU+NrHXgNP091JqRS/1yXA+CaHgiANwuAPO8GiOq7hYPtznFe+HezBYCYgAEwuw+G/9MZngG4ItXw7cD98MntdOmGb+OoDpxh/X6q11BuHN7lawD+T+4BcEPpVQIg768CBudunTz6Nxx0z63rO/9auXFW8rhg24sJGADv74MAuDPDAPhSmsE3M6r/efrhW/9cquE7MPzu9BESH59uO8R79tkKgC+0onlzaRMB0CsXBkbxjtUoPnLs2oAoviAchKcmJexTPxM8APbogwD4aWYfKKK4kmLwLY2iaJP0AdD4YIpbnJ8ZOmBo87SvYVa5vm+a7dCJOxE2cAbgxJwD4CF3AWxwKc1oo+Sq2FmHNF6bfPee5brVwFgAbNcHAbAgy/esWqVxTXun3uOPdeI1JLfQhb/vJ22uRXB8RwZPqZQ8yfI/27sDoPGJDJYB3j/nALhQAKzrNNq0uW+qlhv/spZVpJ4OhfrtwWh4D2/OkFkELCl4APxzpl8rhg8tK9+rWhp8P+nkve/VKN41+STd4sV/1yQB07ELrcOHtuRZAy2uBHh1J1/DOiWn3xeVFucYAB8WAGs/fXXUOC9UOcWbM2QSAOcVPAD2y3yxsahRG/cAjuJfzJ4+59Vd+DrikPD3LxnnbXe/SqKh86+hMS38/YvHFyDxLd14Deu5DuDc3L7/v7a0owD446tXP5v1LTPABgNgVoGH/+JgSh7bbWb5iNeE96mfru/R4rVy/I+d+N5/3SEyvHMYqleu5zUsT862Joujdes1zIqGXrmBrwNWhAD5ShQdPTXTfXRjaa+cAiCzZ8kU5k2m3eV5Byv1ud6koevXASzzHID2vo9PLohLHiFejeoLV14fUP9msthO11e7W+P7+Fo0Z5/wc48de0ZAFF8bBu63wvvnEbVD4tdl9RqqleG9k+/3w8+dP/YaKo1vh/+9Xps2589y20fZLwj0bPP60q4C4I8CIL6uzStG7+n6utEgAq4oaABMt/9Yp5+X9ghDeVmGi/98Lct/XyF2wqwo3ivdutHx/g5m6GoAHFrA4f9wsKX9xwauBZibUQD8d/Oq0lQB0OmFK6zPD90OgMnBLwoWAB+17xjn9QDf6PLwvzeERuYPkSvGbX+V+MspzwBc4CCGrkfABwu1+t/oyCb2G+NyeWnjMKS/16Ulf+8e+6ohh39XUQLgtHTrZzfOchBDJhFwZUECYIb9RRsXBX567Da9zn3nf3VWt/wVNgBq5fikdE/Qapzu4IVMAuAtYw/X6e3h/+Ngkv1Fm18HvD8M71+mHP5Lg5Oal5c2y/PfUogNPqM8vHvKMwB/48AF6wIEvwtebD+Rykhpo+YNpQ+FIX5ni4P/yeCbeXzfX+jbAMMg/1mbAfDr5B5TBy1kGgFf7MHhnyxZ/Eb7h466vvTG5o2lz4TBfnlwR/jPT/1hRb9FpQeCG1YN/QOzvsq/swGwqLR1MD1Iroi8KLguuGvVPzBZMOG0YDDYtuMBUK4f3JPPjQbWdVfAxT00/FcEB9k3ZHStwLbN60pTev11jvcfk3zn8cPgmXGvZrSo9KPgbzt8FuDEFgPg7x2MkFsEbBGc3wPD/6lgpn0CrQTAotJbg8tSXuzw4+CdHVwTYO44nqS1ohrFR9rBkHsETApOynH43xe8zb6AVgJgUenoDi6BuDw4tmNnAqL6boOV+Kth0D/ygsH/aHBqVutXA+MOgRmrPolnOfyvD15m+8N4A2BRacrYBQvdWe3ou8GmHb1FcNqcHarT5r7psGiuK3uhtyPg9RldF5A84e+4YKrtDq0FwBldXvLwHBseJnQIvCe4uguD/5ngX4PtbWdoNQAWlT6R0UMPXJwHQuDAYCQYTTn4b1112+GrbVdoJwAWld676rv6LAIguT9yPzsAGFuTf3Rk/+AbwW3Bkxu4ne+R4L+CY4PdbUNIHwA/y+yZxystCizQA6wtCrZddc3AXwUHB+8IXuUBPtDpAFhUGsh4+K/m3lwAyDEAfpZTANxoJwBAHgGwqPTSjj7esHU72xEAkH0A1HMc/s2xBYfsCADIPAAW5BwAF9sRAJB9APws5wBwHQAA5BAAd+ccAA/ZEQCQfQA8nXMAJBcgTrYzACDbAHgg5wB43I4AgOwD4IacA+BXdgQAZB8AF+ccAJfaEQCQfQAcl3MAnGhHAED2AfD6nAPgLXYEAGQdAMl/WFS6Lafhf5edAAD5BcCROQXAsXYCAOQXAJsGv8t4+N8bTLUTACCvAFgZAbWMA+AjdgAA5B0AKyPgexkN/5Fgkh0AAL0RAMlXAVd1efhfF2xu4wNArwTAygjYIbi2S8N/UbCTDQ8AvRYAKyNganBuh4f/+cEWNjoA9GoAPB8CjeDhlIP/98FRvvMHgKIEwMoI2Dr4fLC4xcE/GvxTsK0NDQBFC4DnQ2BKsF/wtVXf5T8UrFhj4CdnCm4MTg3+OtjEBgaAogfA2qNgk7GL+pK7B2xMAJggAQAACAAAQAAAAAIAABAAAIAAAAAEAAAgAAAAAQAACAAAQAAAAAIAABAAAIAAAAABAAAIAABAAAAAAgAAEAAAgAAAAAQAACAAAAABAAAIAABAAAAAAgAAEAAAgAAAAAQAACAAAAABAAACAAAQAACAAAAABAAAIAAAAAEAAAgAAEAAAAACAAAQAACAAAAABAAAIAAAAAEAAAgAAEAAAAACAAAEAAAgAAAAAQAACAAAQAAAAAIAABAAAIAAAAAEAAAgAAAAAQAACAAAQAAAAAIAABAAAIAAAAAEAAAIAABAAAAAAgAAEAAAgAAAAAQAACAAAAABAAAIAABAAAAAAgAAEAAAgAAAAAQAACAAAAABAAAIAAAQADYCAAgAAEAAAAACAAAQAACAAAAABAAAIAAAAAEAAAgAAEAAAAACAAAQAACAAAAABAAAIAAAAAEAAAgAABAAAIAAAAAEAAAgAAAAAQAACAAAQAAAAAIAABAAAIAAAAAEAAAgAAAAAQAACAAAQAAAAAIAABAAACAAAAABAAAIAABAAAAAAgAAEAAAQE/7f6hCFVyNUOcYAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
-    <t>duration</t>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>drawing</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>drawTitle</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>readme</t>
   </si>
   <si>
     <t>抽奖活动</t>
+  </si>
+  <si>
+    <t>抽奖</t>
+  </si>
+  <si>
+    <t>抽奖中</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>正在抽取</t>
+  </si>
+  <si>
+    <t>导入配置</t>
+  </si>
+  <si>
+    <t>导出配置</t>
+  </si>
+  <si>
+    <t>导出结果</t>
+  </si>
+  <si>
+    <t>使用说明</t>
   </si>
 </sst>
 </file>
@@ -665,10 +723,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -676,6 +734,43 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -688,28 +783,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -718,14 +791,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -739,31 +804,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -780,21 +830,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -809,17 +874,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -832,7 +890,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +1046,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,163 +1064,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,6 +1081,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1041,11 +1114,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,17 +1140,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,7 +1168,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,21 +1181,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1131,10 +1189,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1143,138 +1201,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1628,7 +1689,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1773,8 +1834,8 @@
   <sheetPr/>
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2833,28 +2894,116 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>6000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>216</v>
+      </c>
+      <c r="C1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2">
-        <v>6000</v>
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/setting.xlsx
+++ b/src/assets/setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="24345" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
@@ -723,10 +723,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -738,6 +738,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -745,15 +752,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,28 +766,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -797,14 +774,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -822,15 +799,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,8 +819,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,6 +851,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -866,18 +866,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -890,7 +890,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +932,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,25 +1046,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,133 +1070,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,32 +1084,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,20 +1119,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,18 +1143,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,10 +1189,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1201,133 +1201,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2896,8 +2896,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2921,7 +2921,7 @@
         <v>6000</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>214</v>
@@ -2938,7 +2938,7 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
